--- a/Base/Teams/Saints/Players Data.xlsx
+++ b/Base/Teams/Saints/Players Data.xlsx
@@ -32,10 +32,10 @@
     <t>RZATT</t>
   </si>
   <si>
+    <t>T.Hill</t>
+  </si>
+  <si>
     <t>T.Siemian</t>
-  </si>
-  <si>
-    <t>T.Hill</t>
   </si>
   <si>
     <t>A.Kamara</t>
@@ -499,16 +499,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
         <v>8</v>
       </c>
-      <c r="E2">
-        <v>16</v>
-      </c>
       <c r="F2">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -522,13 +522,13 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F3">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -639,10 +639,10 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -659,7 +659,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>3</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -865,10 +865,10 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -917,13 +917,13 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -943,13 +943,13 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F10">
         <v>4</v>
@@ -969,16 +969,16 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -1027,10 +1027,10 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1047,10 +1047,10 @@
         <v>14</v>
       </c>
       <c r="C14">
+        <v>21</v>
+      </c>
+      <c r="D14">
         <v>14</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1099,13 +1099,13 @@
         <v>27</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1157,10 +1157,10 @@
         <v>7</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18">
         <v>4</v>
@@ -1177,10 +1177,10 @@
         <v>30</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>31</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20">
         <v>1</v>

--- a/Base/Teams/Saints/Players Data.xlsx
+++ b/Base/Teams/Saints/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>K.Stills</t>
+  </si>
+  <si>
+    <t>E.Winston</t>
   </si>
   <si>
     <t>A.Trautman</t>
@@ -499,16 +502,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2">
+        <v>17</v>
+      </c>
+      <c r="E2">
         <v>15</v>
       </c>
-      <c r="E2">
-        <v>8</v>
-      </c>
       <c r="F2">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -539,16 +542,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D4">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -559,16 +562,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>6</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -698,7 +701,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -735,22 +738,22 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -761,10 +764,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -917,16 +920,16 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -943,16 +946,16 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10">
         <v>7</v>
@@ -1125,22 +1128,22 @@
         <v>28</v>
       </c>
       <c r="C17">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1151,19 +1154,19 @@
         <v>29</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D18">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
         <v>7</v>
-      </c>
-      <c r="E18">
-        <v>7</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-      <c r="G18">
-        <v>4</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -1177,22 +1180,22 @@
         <v>30</v>
       </c>
       <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
         <v>4</v>
       </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
       <c r="H19">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1206,18 +1209,44 @@
         <v>4</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
         <v>1</v>
       </c>
     </row>

--- a/Base/Teams/Saints/Players Data.xlsx
+++ b/Base/Teams/Saints/Players Data.xlsx
@@ -502,13 +502,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F2">
         <v>14</v>
@@ -542,13 +542,13 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D4">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <v>29</v>
@@ -642,16 +642,16 @@
         <v>12</v>
       </c>
       <c r="C9">
+        <v>26</v>
+      </c>
+      <c r="D9">
         <v>21</v>
       </c>
-      <c r="D9">
-        <v>17</v>
-      </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -738,19 +738,19 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -868,10 +868,10 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -920,10 +920,10 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>12</v>
@@ -932,10 +932,10 @@
         <v>5</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -946,16 +946,16 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E10">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G10">
         <v>7</v>
@@ -1050,13 +1050,13 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14">
         <v>14</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1154,13 +1154,13 @@
         <v>29</v>
       </c>
       <c r="C18">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -1238,7 +1238,7 @@
         <v>6</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>2</v>

--- a/Base/Teams/Saints/Players Data.xlsx
+++ b/Base/Teams/Saints/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -38,6 +38,9 @@
     <t>T.Siemian</t>
   </si>
   <si>
+    <t>I.Book</t>
+  </si>
+  <si>
     <t>A.Kamara</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
     <t>M.Ingram</t>
   </si>
   <si>
+    <t>A.Prentice</t>
+  </si>
+  <si>
     <t>D.Harris</t>
   </si>
   <si>
@@ -80,9 +86,6 @@
     <t>RZ Comp</t>
   </si>
   <si>
-    <t>A.Prentice</t>
-  </si>
-  <si>
     <t>T.Smith</t>
   </si>
   <si>
@@ -102,6 +105,9 @@
   </si>
   <si>
     <t>E.Winston</t>
+  </si>
+  <si>
+    <t>E.Wolf</t>
   </si>
   <si>
     <t>A.Trautman</t>
@@ -471,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -542,16 +548,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -562,16 +568,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -582,16 +588,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -602,16 +608,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -625,13 +631,13 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -642,16 +648,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -662,16 +668,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -682,15 +688,55 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
         <v>7</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
         <v>0</v>
       </c>
     </row>
@@ -701,7 +747,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -712,22 +758,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -735,13 +781,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -761,7 +807,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -787,7 +833,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -813,7 +859,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -839,7 +885,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -865,7 +911,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>17</v>
@@ -891,7 +937,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -917,7 +963,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>32</v>
@@ -943,13 +989,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>22</v>
@@ -969,7 +1015,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>40</v>
@@ -995,7 +1041,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -1021,19 +1067,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
         <v>4</v>
       </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
       <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
         <v>5</v>
-      </c>
-      <c r="F13">
-        <v>4</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1047,7 +1093,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>22</v>
@@ -1073,7 +1119,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1099,13 +1145,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>5</v>
@@ -1125,7 +1171,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1151,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1177,22 +1223,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
         <v>7</v>
-      </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
-      <c r="G19">
-        <v>4</v>
       </c>
       <c r="H19">
         <v>3</v>
@@ -1203,25 +1249,25 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
         <v>4</v>
       </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
       <c r="H20">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1229,24 +1275,50 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="D22">
         <v>6</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21">
-        <v>3</v>
-      </c>
-      <c r="H21">
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
         <v>1</v>
       </c>
     </row>

--- a/Base/Teams/Saints/Players Data.xlsx
+++ b/Base/Teams/Saints/Players Data.xlsx
@@ -508,13 +508,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D2">
+        <v>23</v>
+      </c>
+      <c r="E2">
         <v>20</v>
-      </c>
-      <c r="E2">
-        <v>18</v>
       </c>
       <c r="F2">
         <v>14</v>
@@ -568,16 +568,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D5">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E5">
         <v>18</v>
       </c>
       <c r="F5">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -588,7 +588,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>12</v>
@@ -691,7 +691,7 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -731,7 +731,7 @@
         <v>3</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -784,22 +784,22 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -940,10 +940,10 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -992,19 +992,19 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E10">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>5</v>
@@ -1018,10 +1018,10 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>12</v>
@@ -1070,10 +1070,10 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>6</v>
@@ -1252,10 +1252,10 @@
         <v>32</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E20">
         <v>7</v>
@@ -1264,10 +1264,10 @@
         <v>3</v>
       </c>
       <c r="G20">
+        <v>6</v>
+      </c>
+      <c r="H20">
         <v>4</v>
-      </c>
-      <c r="H20">
-        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:8">

--- a/Base/Teams/Saints/Players Data.xlsx
+++ b/Base/Teams/Saints/Players Data.xlsx
@@ -508,16 +508,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -534,7 +534,7 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -568,16 +568,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D5">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E5">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F5">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -588,13 +588,13 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -691,7 +691,7 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -784,10 +784,10 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -810,7 +810,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -940,10 +940,10 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -966,22 +966,22 @@
         <v>23</v>
       </c>
       <c r="C9">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="H9">
         <v>5</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-      <c r="H9">
-        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -998,13 +998,13 @@
         <v>36</v>
       </c>
       <c r="E10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F10">
         <v>9</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H10">
         <v>5</v>
@@ -1018,22 +1018,22 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11">
         <v>5</v>
       </c>
       <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
         <v>4</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1076,10 +1076,10 @@
         <v>6</v>
       </c>
       <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
         <v>6</v>
-      </c>
-      <c r="F13">
-        <v>5</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1096,13 +1096,13 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1226,10 +1226,10 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D19">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1238,10 +1238,10 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1252,10 +1252,10 @@
         <v>32</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20">
         <v>7</v>
@@ -1264,10 +1264,10 @@
         <v>3</v>
       </c>
       <c r="G20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1304,10 +1304,10 @@
         <v>34</v>
       </c>
       <c r="C22">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>3</v>
